--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -55,29 +55,52 @@
     <t xml:space="preserve">Packet ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ad35e2dd-56b1-4d6f-a451-b46cc09f94b6</t>
+    <t xml:space="preserve">a11bff52-b77b-4f08-875b-7629985845a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vmbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8a5ae78-2939-4ad6-90e4-14cdbd621398</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">c80b6b8a-e5c8-482b-8f88-633dd41441c6</t>
   </si>
   <si>
-    <t xml:space="preserve">b8a5ae78-2939-4ad6-90e4-14cdbd621398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a11bff52-b77b-4f08-875b-7629985845a1</t>
+    <t xml:space="preserve">ad35e2dd-56b1-4d6f-a451-b46cc09f94b6</t>
   </si>
   <si>
     <t xml:space="preserve">d948abc9-2c3c-472b-b57f-5290250fe8e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09652541-26d1-404a-ae35-32a2eb7aaf3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7bb7c1c4-9a0c-4964-b594-c7118c178bf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c64c6b2e-c737-4fd1-a3eb-61eaa2849655</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vmvs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -183,7 +206,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +229,22 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -393,10 +432,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,8 +443,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,11 +469,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">B4/B3</f>
-        <v>0.00166666666666667</v>
+        <v>0.00266666666666667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,26 +508,2682 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>46057.7208333333</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>46057.6798611111</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>68664898</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>46058.4270833333</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>68683837</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>46058.5798611111</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>46058.5381944444</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>68698372</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>-618684</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>46058.5451388889</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>68699200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>-618684</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>46058.6111111111</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>68705125</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>46058.71875</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>46059.51875</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>46059.6451388889</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="8"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="8"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="8"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="8"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="8"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="8"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="8"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="8"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="8"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="8"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="8"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="8"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="8"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="8"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="8"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="8"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="8"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="8"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="8"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="8"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="8"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="8"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="8"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="8"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="8"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="8"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="8"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="8"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="8"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="8"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="8"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="8"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="8"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="8"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="8"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="8"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="8"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="8"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="8"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="8"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="8"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="8"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="8"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="8"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="8"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="8"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="8"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="8"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="8"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="8"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="8"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="8"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="8"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="8"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="8"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="8"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="8"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="8"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="8"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="8"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="8"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="8"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="8"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="8"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="8"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="8"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="8"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="8"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="8"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="8"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="8"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B287" s="6"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="8"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="8"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="8"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="8"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="8"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="8"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="8"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="8"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="8"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B297" s="6"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="8"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B298" s="6"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="8"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="8"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="8"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="8"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="8"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+      <c r="F303" s="8"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="8"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="8"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B306" s="6"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="8"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+      <c r="F307" s="8"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B308" s="6"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="8"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B309" s="6"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="8"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B310" s="6"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="8"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B311" s="6"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="8"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B312" s="6"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="8"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="8"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="8"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="8"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="8"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="8"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B318" s="6"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="8"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B319" s="6"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="8"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B320" s="6"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+      <c r="F320" s="8"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B321" s="6"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="8"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B322" s="6"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+      <c r="F322" s="8"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B323" s="6"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
+      <c r="F323" s="8"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="8"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="8"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="8"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+      <c r="F327" s="8"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B328" s="6"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+      <c r="F328" s="8"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="8"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="8"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="8"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="8"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="8"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="8"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="8"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="8"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B337" s="6"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="8"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B338" s="6"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="8"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B339" s="6"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="8"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="8"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B341" s="6"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="8"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B342" s="6"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="8"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="8"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B344" s="6"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="8"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B345" s="6"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="8"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B346" s="6"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="8"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="8"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="8"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="8"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="8"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B351" s="6"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="8"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="8"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="8"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="8"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="8"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="8"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B357" s="6"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="8"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B358" s="6"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="8"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B359" s="6"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="8"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="8"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="8"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="8"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="8"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="8"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="8"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="8"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B367" s="6"/>
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="8"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="8"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="8"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B370" s="6"/>
+      <c r="C370" s="6"/>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+      <c r="F370" s="8"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B371" s="6"/>
+      <c r="C371" s="6"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+      <c r="F371" s="8"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B372" s="6"/>
+      <c r="C372" s="6"/>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
+      <c r="F372" s="8"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+      <c r="F373" s="8"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
+      <c r="F374" s="8"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B375" s="6"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+      <c r="F375" s="8"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+      <c r="F376" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">f21ac25a-5b26-41ce-a64d-eb1eb7d44a21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processing</t>
   </si>
 </sst>
 </file>
@@ -471,7 +468,7 @@
   <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,10 +752,14 @@
         <v>46061.4597222222</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>46060.4180555556</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>68769153</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">f21ac25a-5b26-41ce-a64d-eb1eb7d44a21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
   </sheetPr>
   <dimension ref="A1:F376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3000</v>
+        <v>3807</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -503,11 +506,11 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTIF(A11:A70,"*")-COUNT(A11:A70)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">B4/B3</f>
-        <v>0.00366666666666667</v>
+        <v>0.00341476228001051</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,24 +758,32 @@
         <v>13</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>46060.4180555556</v>
+        <v>46061.4180555556</v>
       </c>
       <c r="F21" s="7" t="n">
         <v>68769153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10" t="n">
+        <v>46062.4354166667</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10" t="n">
+        <v>46062.8694444444</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">b8a5ae78-2939-4ad6-90e4-14cdbd621398</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">c80b6b8a-e5c8-482b-8f88-633dd41441c6</t>
   </si>
   <si>
@@ -97,7 +94,31 @@
     <t xml:space="preserve">f21ac25a-5b26-41ce-a64d-eb1eb7d44a21</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t xml:space="preserve">c7010f85-2a8b-47e2-bd99-3a45bff61b4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vbms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa5b0a1f-2ca3-4ed2-9e8f-21d29b188ad8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">056cc35c-d270-4f62-b696-65fced00fd51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87efed84-a179-49ec-9d0d-c4d29c9b2a1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8c73c9c-1edb-4a7a-aff1-c20ea37e5816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e874961-c725-40be-861f-09b1fc3511d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26c58d71-8daf-460d-b6eb-59b4f4974912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224f98e7-98b6-41ed-9366-5f39d1a3409f</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,6 +178,12 @@
     <font>
       <sz val="10"/>
       <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cascadia Mono SemiBold"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
@@ -226,7 +253,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,6 +304,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -471,7 +502,7 @@
   <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,11 +537,11 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTIF(A11:A70,"*")-COUNT(A11:A70)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">B4/B3</f>
-        <v>0.00341476228001051</v>
+        <v>0.00499080640924613</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,8 +602,8 @@
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
+      <c r="C12" s="10" t="n">
+        <v>46058.4680555556</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
@@ -586,7 +617,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
@@ -606,7 +637,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
@@ -626,7 +657,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -646,7 +677,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>12</v>
@@ -666,7 +697,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>12</v>
@@ -686,7 +717,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
@@ -706,7 +737,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>12</v>
@@ -726,7 +757,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>12</v>
@@ -746,7 +777,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
@@ -765,10 +796,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7"/>
       <c r="C22" s="10" t="n">
         <v>46062.4354166667</v>
       </c>
@@ -778,9 +811,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
       <c r="C23" s="10" t="n">
         <v>46062.8694444444</v>
       </c>
@@ -789,49 +824,85 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>46064.7840277778</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>46065.4166666667</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>46065.5527777778</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>46065.725</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>46034.8090277778</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>46066.3798611111</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="10"/>
       <c r="F29" s="9"/>
@@ -1141,7 +1212,7 @@
       <c r="F67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="7"/>
       <c r="C68" s="10"/>
       <c r="D68" s="7"/>
@@ -1149,7 +1220,7 @@
       <c r="F68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="7"/>
       <c r="C69" s="10"/>
       <c r="D69" s="7"/>
@@ -1157,7 +1228,7 @@
       <c r="F69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="7"/>
       <c r="C70" s="10"/>
       <c r="D70" s="7"/>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">224f98e7-98b6-41ed-9366-5f39d1a3409f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in progress</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,7 +505,7 @@
   <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,9 +808,15 @@
       <c r="C22" s="10" t="n">
         <v>46062.4354166667</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>46062.3944444444</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>68782168</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
@@ -819,9 +828,15 @@
       <c r="C23" s="10" t="n">
         <v>46062.8694444444</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>46062.8284722222</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>68817908</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
@@ -833,9 +848,15 @@
       <c r="C24" s="10" t="n">
         <v>46064.7840277778</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>46064.7430555556</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>68905904</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
@@ -847,9 +868,15 @@
       <c r="C25" s="10" t="n">
         <v>46065.4166666667</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>46065.375</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>68917102</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
@@ -861,9 +888,15 @@
       <c r="C26" s="10" t="n">
         <v>46065.5527777778</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>46065.5111111111</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>68930645</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
@@ -875,9 +908,15 @@
       <c r="C27" s="10" t="n">
         <v>46065.725</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>46065.6840277778</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>68947146</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
@@ -889,9 +928,15 @@
       <c r="C28" s="10" t="n">
         <v>46034.8090277778</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>46034.7680555556</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>68949828</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
@@ -903,7 +948,9 @@
       <c r="C29" s="10" t="n">
         <v>46066.3798611111</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="9"/>
     </row>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t xml:space="preserve">d888fedd-8365-4ae9-b238-ed98a5ef9ed7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee558a7e-0d71-4f73-a4a0-b2991e47abed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1481dc01-9828-416b-86e5-85136bc45602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b58a08e-3afc-4e44-9441-69e0f1f932cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496d3a07-5df1-4ede-8bb9-6fc0b5b320bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d85247bf-602a-4dd1-8269-89974396cd25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6ed6b38-fe6b-4421-879e-d7acaf1394b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f18b6da5-8d65-4ea1-80ed-11a8c25f6462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe7f1ed0-0026-4610-8092-1f1c641767e8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email send error: missing form_data: email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0e414354-ab78-42f5-acef-22ad3528fefc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9651b370-7ef0-4abc-9bcf-c6018f8f1d26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vmbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173cb54f-b5d1-4477-9a08-839017fd9798</t>
   </si>
 </sst>
 </file>
@@ -531,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A39:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,11 +606,11 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTIF(A11:A70,"*")-COUNT(A11:A70)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="n">
         <f aca="false">B4/B3</f>
-        <v>0.00577882847386394</v>
+        <v>0.0086682427107959</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +1041,16 @@
       <c r="C30" s="12" t="n">
         <v>46067.7486111111</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="0" t="s">
+      <c r="D30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <v>46067.7069444444</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>68998279</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1019,9 +1064,15 @@
       <c r="C31" s="12" t="n">
         <v>46069.7569444444</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
+      <c r="D31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="12" t="n">
+        <v>46069.7159722222</v>
+      </c>
+      <c r="F31" s="11" t="n">
+        <v>69018388</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
@@ -1033,94 +1084,208 @@
       <c r="C32" s="12" t="n">
         <v>46069.7798611111</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
+      <c r="D32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="12" t="n">
+        <v>46069.7381944444</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>69018815</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="12" t="n">
+        <v>46071.1305555556</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="12" t="n">
+        <v>46071.8902777778</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>69074668</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="12" t="n">
+        <v>46071.5625</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <v>46072.6159722222</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>69099112</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="12" t="n">
+        <v>46072.5</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <v>46072.6819444444</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>69138583</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="12" t="n">
+        <v>46072.6291666667</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <v>46072.6993055556</v>
+      </c>
+      <c r="F36" s="11" t="n">
+        <v>69156031</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="12" t="n">
+        <v>46072.6583333333</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="12" t="n">
+        <v>46072.7451388889</v>
+      </c>
+      <c r="F37" s="11" t="n">
+        <v>69159049</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="12" t="n">
+        <v>46072.9222222222</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="12" t="n">
+        <v>46072.9166666667</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <v>69169024</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="12" t="n">
+        <v>46073.9548611111</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="12" t="n">
+        <v>46074.1916666667</v>
+      </c>
       <c r="D40" s="9"/>
       <c r="E40" s="12"/>
       <c r="F40" s="11"/>
+      <c r="G40" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="12" t="n">
+        <v>46074.2298611111</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="12"/>
       <c r="F41" s="11"/>
+      <c r="G41" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="12" t="n">
+        <v>46074.6340277778</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="12"/>
       <c r="F42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="12" t="n">
+        <v>46075.8479166667</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="12"/>
       <c r="F43" s="11"/>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t xml:space="preserve">173cb54f-b5d1-4477-9a08-839017fd9798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54c3c280-f486-4bb3-9b95-c7de8e623521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8be933b0-0354-48d7-94d5-f2abfd7e6b3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7d96ff2f-1070-4eee-99f0-7305245fb358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4901c4ad-8d73-4189-889a-b634fbfab1a8</t>
   </si>
 </sst>
 </file>
@@ -570,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A39:A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,11 +621,11 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTIF(A11:A70,"*")-COUNT(A11:A70)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="n">
         <f aca="false">B4/B3</f>
-        <v>0.0086682427107959</v>
+        <v>0.00971893879695298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,11 +633,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">B5/B3</f>
-        <v>0.00026267402153927</v>
+        <v>0.00131337010769635</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1224,9 +1239,15 @@
       <c r="C39" s="12" t="n">
         <v>46073.9548611111</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
+      <c r="D39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="12" t="n">
+        <v>46074.4486111111</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <v>69212086</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
@@ -1238,10 +1259,16 @@
       <c r="C40" s="12" t="n">
         <v>46074.1916666667</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="0" t="s">
+      <c r="D40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="12" t="n">
+        <v>46074.15</v>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>69212650</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1255,10 +1282,16 @@
       <c r="C41" s="12" t="n">
         <v>46074.2298611111</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="0" t="s">
+      <c r="D41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <v>46074.4701388889</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <v>69212684</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1272,9 +1305,15 @@
       <c r="C42" s="12" t="n">
         <v>46074.6340277778</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="12" t="n">
+        <v>46076.3597222222</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <v>69221624</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
@@ -1286,41 +1325,101 @@
       <c r="C43" s="12" t="n">
         <v>46075.8479166667</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
+      <c r="D43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="12" t="n">
+        <v>46076.4319444444</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <v>69228956</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="12" t="n">
+        <v>46077.4180555556</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="12" t="n">
+        <v>46077.5076388889</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="12" t="n">
+        <v>46077.7826388889</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="12" t="n">
+        <v>46078.0972222222</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -178,13 +178,13 @@
     <t xml:space="preserve">54c3c280-f486-4bb3-9b95-c7de8e623521</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">8be933b0-0354-48d7-94d5-f2abfd7e6b3d</t>
   </si>
   <si>
     <t xml:space="preserve">7d96ff2f-1070-4eee-99f0-7305245fb358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Complete</t>
   </si>
   <si>
     <t xml:space="preserve">4901c4ad-8d73-4189-889a-b634fbfab1a8</t>
@@ -585,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1346,21 +1346,21 @@
         <v>46077.4180555556</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="12" t="n">
+        <v>46077.5305555556</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <v>69285905</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>26</v>
@@ -1369,21 +1369,21 @@
         <v>46077.5076388889</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="12" t="n">
+        <v>46077.6465277778</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <v>69294694</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>26</v>
@@ -1392,13 +1392,13 @@
         <v>46077.7826388889</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>46077.9388888889</v>
+      </c>
+      <c r="F46" s="11" t="n">
+        <v>69324354</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1412,13 +1412,13 @@
         <v>46078.0972222222</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E47" s="12" t="n">
+        <v>46078.4534722222</v>
+      </c>
+      <c r="F47" s="11" t="n">
+        <v>69331094</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization-pingwind/post-go-live/21-4140/21-4140-post-go-live-submission-tracker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t xml:space="preserve">21-4140 Post-Go-Live Submission Tracker</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t xml:space="preserve">4901c4ad-8d73-4189-889a-b634fbfab1a8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77e6a163-507a-40b6-8fb3-c13cc861f9c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31033a9b-fbe5-41ab-bdf3-4ce3cde56d6a</t>
   </si>
 </sst>
 </file>
@@ -585,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,11 +630,11 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">COUNTIF(A11:A70,"*")-COUNT(A11:A70)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="n">
         <f aca="false">B4/B3</f>
-        <v>0.00971893879695298</v>
+        <v>0.0102442868400315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,19 +1431,39 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="12" t="n">
+        <v>46078.8111111111</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="12"/>
+      <c r="A49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="12" t="n">
+        <v>46078.9131944444</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
